--- a/PLSstatic_predicted_variables_matrix_5.xlsx
+++ b/PLSstatic_predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.305385153124652</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2973777856146418</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2900007573965627</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.283412727082673</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2775520757283464</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2723648589854039</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2678017348768519</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2637323889666586</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.260147219515704</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2569572330492325</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2543017633809256</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.25212849914293</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2503447481077598</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.248880464672134</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2477586210620746</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2470167382903924</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2465734331139167</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.246365303483299</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2463859018349244</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2465808767793317</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2469438485552568</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2474498889066294</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2480994060352391</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2488513684245959</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2497094607394435</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.250636773457116</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2516167394465884</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2526355742597628</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2536810437096331</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2546749538932115</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2556665840395921</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2566505144402332</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2576202109410383</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2585699386517249</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2594456747364529</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2602900005969178</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2611010289451256</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2618766499011169</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2626152767196152</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2633158534519127</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2639778020206897</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2646009668325885</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2651855620439425</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.2657321220162879</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>0.1980673035968826</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2060534798988483</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2132509843600126</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2195845863104973</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2251260683968253</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2299406149394327</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2340886522798424</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2376541931134266</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2406615934743155</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2431499293921927</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2451250889725881</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2466463085377641</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2477542858737666</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2484666084997825</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2488378931917314</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2489675955525054</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2488705592552419</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2485558195688914</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2480917354555925</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2474788507388837</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2467815845772989</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2460228984727459</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2452461397645806</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2444375002115439</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2436300429629984</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.242813068767354</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2419994548837412</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2411996696110734</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2404225298780893</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2396684229786745</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2389639423757283</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2383110720877967</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.237711990776117</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2371681199402921</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.236690204101489</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2362728660395882</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2359142561347228</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2356125933190775</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2353658026364382</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2351715428579383</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2350272620874315</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2349302505814939</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2348776883609798</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.2348666876363665</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.1749453308131422</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1807250643515689</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1861717314733817</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1911521168497123</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1956975051055154</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1998312794197031</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2035749073381459</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2070116210663711</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.210135789727571</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2130030941388319</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2154997341823516</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2176570049839916</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2195343687984479</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.221173461746212</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2225519880810112</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2236436839248735</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2244998029718988</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2251603549897982</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2256350834226857</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2259540162228178</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2261303653343366</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2261808072252999</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2261145394187676</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2259521759378623</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2257029965057937</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.225384894728732</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2250131936703451</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2245993045868532</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2241533841597341</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2237161731492329</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2232749409417095</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2228313440752048</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2223912204307723</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2219600150157188</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.221570459078846</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2212026572523733</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2208574670129388</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2205371819480755</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2202437133984534</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2199784835974212</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2197424633380769</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2195362199431722</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2193599638828</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.2192135929117965</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>-0.0858805156521581</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.08196444965354877</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.07849246708744216</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.07549406073224454</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.07293719431647461</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.07078881503951472</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.06901749186971383</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.06756501423751776</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.06641187331204423</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06551008485457739</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.06489875174031406</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.06454770137885679</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.06440420477473853</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.06441904577601794</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.0645952510398983</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.06495964741265703</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.06545784868286743</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.06604324528259027</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06672231530315556</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.06744705775591303</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.06822913323661428</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.06905190740239564</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.06993251175919837</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.0708290659331591</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.07176333385396318</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.07269653410586097</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07362232081371053</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07453395807124227</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07542555862792674</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.07621878481345831</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07698268470754274</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.07771163912681261</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.0784032646207118</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.0790560045280037</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.07962326275690809</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.0801509127464328</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08063803811781754</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.0810851020623695</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08149295171878498</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08186269097620975</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08219563083888944</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08249324965987014</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.08275715738113283</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.08298906318450994</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>0.1881407087135287</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1911734348142153</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1938357697423976</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1961472713325707</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1981248923887106</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1997893345245216</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.201161514796648</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2022490940676789</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2030685188417751</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2036183902545819</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2039507813218472</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2040878830435754</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.204032968366395</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.203784529298064</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2033843933511818</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2029006404933051</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2023320087138019</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2016760052629403</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2009700238999441</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2002131825715953</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1994390071321101</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1986614365158633</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1979034714534585</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1971591722414687</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1964428498492173</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1957503361269861</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1950855835229351</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1944533422336485</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1938576271105617</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1932985509282203</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1927852031925092</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1923219167907375</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1919093016335832</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1915471675091555</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1912398158235598</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1909823509369979</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1907742705928863</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1906135662877038</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1904979284423835</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1904248935244277</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1903918961267462</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1903963085718282</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1904354753263193</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1905067430845206</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>-0.4479822589803281</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4421618721467035</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4368011850162727</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4320268464492469</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.4278002793743342</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.4240853340709519</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.4208484619377014</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.4179753308738141</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.4154573941434984</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.4132008778625724</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.4113657297099042</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.4099152597144529</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.4087494133398225</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.4077790296315785</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.4070575139321244</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.4066921430659261</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.4065774906992457</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.4066273949242754</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.4068772521278246</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.4072435225923278</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.4077629179102635</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.408412755839952</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.4092281163201538</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.4101342425078766</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.4111670660372895</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4122595786616726</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4133988303285712</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4145727876119834</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4157705531014342</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.416865808376582</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4179658388392331</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4190623872966817</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4201487135126175</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4212190215263197</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4221967061068806</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4231498813183144</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4240749841892267</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4249693317249023</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4258308588120522</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4266580444932654</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4274498561582385</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4282056973197385</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4289253579511193</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.4296089674528252</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>-0.2108054846535207</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2050313417000208</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.199365324173997</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1940127360931627</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1889615915193522</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1842082755285585</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.179750044297711</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1754923010238482</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1714639760672329</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1676043905625223</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1641044709648349</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1609446091293915</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1580596050924843</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1554100087737555</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1530539759971929</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.151050927164267</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1493406964290269</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1478835485072939</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1466788658988765</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1457003593162595</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1449361863124117</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1443695364000794</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1439827500997347</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1437583951641266</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1436757613159223</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1437220926806064</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1438790878480262</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1441328443875155</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1444705529390806</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.144871054710553</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1453216311374602</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1458183744538981</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1463518665469014</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.146913037167724</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1474766966889714</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.148047491790795</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1486216703051679</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1491936846827865</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1497585248568476</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1503118727355005</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1508500698593268</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1513700690604466</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1518693851917409</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.152346046609304</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>-0.3952219326575873</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.385559972957908</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3766244376160484</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3685865381108752</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3613896698713131</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3549822462094008</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3493158497721873</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3442663918004824</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3398282260164823</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3359274864481879</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.3326816826070882</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3300327915257751</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3278994600667945</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3262309599995578</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.325026907897872</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.3242654909504802</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3238802739359136</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.3238259259260395</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.3240604383588968</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.3245488084752656</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.3252467429499318</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3261208080982697</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3271371443569553</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3282770402866877</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3295150824307528</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3308349168526035</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3322158550531056</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3336399044612288</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3350910254506407</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3365285960249016</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3379535423815003</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3393570812859237</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3407307142702353</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3420672166370523</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3433282239216712</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3445364864296434</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3456894228818427</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3467848807950524</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3478214885981077</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3487986004069325</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.349716210654082</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3505748710020401</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3513756124229848</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.3521198727391791</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.3572283143631199</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3638583286074389</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3699286339070622</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3753616990024405</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3802042119659264</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3844981101913356</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3882826398438611</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.391622569607356</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3945292329451566</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3970322292036551</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3991171858435094</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.40082710828484</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4021945602479014</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4032320509778856</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4039742185364407</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4044931942788328</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4048034124701667</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4049125150637381</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4048744376632626</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4046892040692073</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4044100609099611</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4040567236628893</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4036680283626377</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4032326337137399</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.4027817177918157</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.4023057971714857</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.4018170907186977</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.4013255467548943</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.4008397432610404</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.4003559765075018</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3999034112851326</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3994845624609351</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3991025888673342</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.398759973381709</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3984648448089894</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3982163925595585</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3980138969006369</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3978568092975889</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3977442452703831</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3976749955242628</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3976475771419322</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3976602840097046</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3977112330819673</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.397798406316877</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>-0.2381190885150258</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2340601812212653</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2302954320345134</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2269311896445523</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2239391925764786</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.2212977444083853</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2189868922842391</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.2169193671068497</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.2150933581303986</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.2134319896887541</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.2120747762178945</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.2109950954999141</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.210111409947357</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.2093479857639213</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.2087556362791803</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.2084395792636966</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.2083142390323013</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.2083041646244245</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.2084450653212409</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.2086668200013517</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.2090055788572064</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.2094471124812764</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.2100270677069121</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2106818787920274</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2114435303994142</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2122549024834354</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2131032167995841</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2139788662666777</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2148732922291443</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2156749767824563</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2164765026089673</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2172759943183251</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2180682939216328</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2188486128311122</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2195498436327652</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2202303575074576</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2208890353889492</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2215236724460594</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2221324263102276</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.22271389913136</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.223267104125342</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2237914237886838</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.224286569132418</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.2247525408808285</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2055,135 @@
       <c r="E12" t="n">
         <v>-0.1251117960625845</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.1161435385503227</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.108244767232998</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.1014580714196454</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.09569699567062667</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.09088068669112942</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.08693285063875904</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.08376008743604008</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.08131980600305032</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.07955696669174557</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.07844202624661933</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.07789913512675885</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.07786742438326104</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.07830325581077402</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.07913737941736745</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.08027455779330189</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.0816767101402288</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.08330805338914807</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.08510219894328391</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.08702938603218771</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.08903342727765171</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.09108325741874859</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.09315131970797455</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.09522485618654428</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.09728911214978642</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.09932923369720456</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.10132917341407</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1032756277643033</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.105157547797901</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.106918554316439</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1085838278499593</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1101505734024219</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1116168511746548</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1129819019109968</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1142039953578891</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1153217940584501</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1163385909435213</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1172580281486564</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1180841880339169</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1188215100137214</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1194747013399307</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1200486558505571</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1205483814910826</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.1209789362591248</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2201,135 @@
       <c r="E13" t="n">
         <v>-0.01089998904772616</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01429965587618442</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.01765377357410079</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.02085602196838791</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.02392296186244931</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.02686328385628276</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.02968349720161467</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.03240338183490599</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.03500139149003134</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.03745341746118305</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.03975807854738039</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.04192730878584218</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.043932410299901</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.04571537646947394</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.04731282170504442</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.04885486420226975</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.0502837354977138</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.05153652970773022</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.05269507032083483</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.05368265401436031</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.05459140639549719</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.0554237478891203</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.05626540465090705</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.05703285457322625</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.05780835853122859</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.05851492449332264</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.05915946712797998</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.05974601714625173</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.06027821893517694</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.06061587884986658</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.0609200817801332</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.06118841009748035</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06142316123959781</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06162693075801684</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06173211841943249</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.06181791329853428</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06188418456306241</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.06193265044554223</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.06196508766106638</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.0619831768378425</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.06198848897814836</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.06198248495491937</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.06196651696755257</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.06194183088785177</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2347,135 @@
       <c r="E14" t="n">
         <v>0.05154346607817935</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.06229059180204007</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.07155652296267175</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0793939136816819</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.08590776783652158</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.09119468516115967</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.09534824948546003</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.09839908082794643</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1004082480821579</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1013597025996096</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1014988918295386</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.100927131907162</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.09963672226182255</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.09759737185306908</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.09501051483002815</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.09220490700607767</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.08912351278872382</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.08572916927671737</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0822080641611187</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.07851129110174221</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.07481000399210801</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.07114150643960117</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.06761803058060573</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.06416691664595571</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.06087689666055954</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.05768885947953312</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.05462463143880165</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.05169975055988865</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.04892628895197443</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.04624989156233229</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.043775454033377</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.04149792948117483</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.0394151736606479</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.03752376012734041</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.03581039355870841</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.03429028404655565</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.03295234216223237</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.03178681913071284</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.03078368227470285</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02993262111698104</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02922317619005037</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.02864486254258566</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.02818727796945406</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.02784019610421395</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2493,135 @@
       <c r="E15" t="n">
         <v>-0.05338589712903785</v>
       </c>
+      <c r="F15" t="n">
+        <v>-0.04421712876266715</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.03676905459537968</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.03087656877107171</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.02641546962138036</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.02326894102411965</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.02132383934370146</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.02056772163063919</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.02090663150984509</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.02235329791853693</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.02457527890283181</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.02746060626214028</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.03101354871828135</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.03524236349454888</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.03991636085797239</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.04471219574137332</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.04967957433417319</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.05483418342620763</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.06000540104221817</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.06521391967518898</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.07031628552593017</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.07527750039625275</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.08002321804681853</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.08459660695006666</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.08894770053176927</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.09310581271587312</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.09705381455687216</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1007803419732506</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1042776259341498</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1075324802591928</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1105194385986452</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1132472844286237</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1157231856481966</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1179555759278577</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1199274643609625</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1216658084435833</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1231856929330502</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1245011585460039</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1256263043868617</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1265752339882918</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1273619221546033</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1280000933906516</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1285031183430621</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.1288839274751328</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2639,135 @@
       <c r="E16" t="n">
         <v>0.3170887447331286</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.3333462353523304</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3475098930120608</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3596638721000329</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3699367753562056</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3784530405297069</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3853354361941749</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3905965889975948</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3943156925764758</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3964315979762773</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3973448331277141</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.397194748388539</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3959359232530911</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3934826435337304</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3901543500150189</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3865069392093661</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3824231379869213</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3778091488627837</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3729752931776382</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3678129873656392</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3626149668835934</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.357441476514267</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3525005103012396</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3476487499890202</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3430528410516445</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3385917503553114</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3342966449714188</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3301919969830162</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3262973325762359</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3224614668174668</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.3189126786907413</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.3156500630382201</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.3126721866439639</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.3099751634416547</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.3075036435534411</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.3053182350809779</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.3034051871155228</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.3017507139142742</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.3003403278119963</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2991590091066028</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.298191422043761</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2974221106462766</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2968356701516719</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.2964168951600002</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2785,135 @@
       <c r="E17" t="n">
         <v>0.5033851589629359</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.5122857128979146</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5190243058669992</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5238811814212787</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.527054126012672</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5287308593178015</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5290870914673453</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5281501431618043</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5260676432093785</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5228300839319356</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.518906854027142</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.5144365383917315</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.5094042159825719</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5037982369233515</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4979154180960757</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.492149179107963</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4864186369852533</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4806894681815614</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4751453863991483</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4697531830806518</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.46465381097935</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4598711160927639</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4554612610713556</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.451368457240702</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4476190498098646</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4441767004158995</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4410426150893573</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4382156756719806</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4356917630859025</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4334854520868063</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4315904148709325</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4299922979978752</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4286735898839922</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4276160226358221</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4268257601402277</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4262646886761069</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4259130188433392</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4257506794268539</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4257582829689826</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4259172920032623</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4262100978173586</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4266200745282777</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4271316156559376</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.4277301555377321</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2931,135 @@
       <c r="E18" t="n">
         <v>-0.07363222981826284</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.07416015875843339</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.07575675534991511</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.07817412291766566</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.08128935572865255</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.08498889025811747</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.08916848517894629</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.09380386486321549</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.09878628147399181</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.1040686818127622</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1094279458337058</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1147985016883465</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1201420911813095</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1253841303575249</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.1304233159821224</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1352386551365668</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1398072746005963</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1440678275123589</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1480383613470259</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1516476121063307</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1549502595840738</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1579521842702055</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1607475757539056</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1632687667522594</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1656130871850617</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1677092613095849</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1695680544113654</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1712010661230384</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1726207008138492</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.173647205304042</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1744887783902911</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1751612603136637</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1756805173894468</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.176061905184221</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1762238891289751</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1762818492215827</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1762494985706572</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1761397628441617</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1759646061266991</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1757350272950228</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1754610782911607</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.175151890421559</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.174815706429145</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.1744599171707645</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3077,135 @@
       <c r="E19" t="n">
         <v>0.3755009850093315</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.3753648122699504</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.374395777628108</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3728348365191254</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3707432065931818</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3681878990081686</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3652334974661368</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3618637720759526</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3581638613555011</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3541508438961244</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.350030848852394</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3458462530017273</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3416168434904661</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3373962338132243</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3332710046551135</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3292694718100191</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3254162925354169</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3217609197066982</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3182922182067801</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3150762995532022</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3120729829768752</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3092892231633681</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3066569973881176</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3042409422198969</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3019636324220374</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.2998909645219872</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.298014657354617</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2963292708527626</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2948286451981709</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.293664984772349</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2926649373942964</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.291826005406766</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2911382118828594</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.290590892742637</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.290256118687225</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2900351860754576</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2899203463094015</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.28990131769465</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2899680322587523</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2901109042450849</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2903208776129779</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2905894465449109</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.290908666457154</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.2912711578676631</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3223,135 @@
       <c r="E20" t="n">
         <v>0.2538119890865711</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.2658781487802604</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2759366057337914</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2841768827303823</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2907282760010704</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2957168221227048</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2992663470458191</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3013648622733079</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.302112704097014</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3014566009479617</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2998343759926622</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2973745687626601</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2940365664531118</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.289764219424335</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.2848632312439101</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2798098959209554</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2745046198546895</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2688836263548764</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.263199076022489</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2573808489960627</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2516539532204096</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2460656812875553</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2407578663050946</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2356323526133371</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2307951502582109</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2261680567847808</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2217723620876944</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2176239404140143</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2137343615803244</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.2100342345071216</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.2066459740971621</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.203563888280764</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.2007811487216644</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1982889641780447</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1960656652497221</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1941249993298805</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1924507256987527</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.191026545180336</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1898358526181336</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1888619083413334</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1880880209256845</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1874977079667837</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.187074833617206</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.1868037243786867</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3369,135 @@
       <c r="E21" t="n">
         <v>0.4999724293612625</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5111268113557785</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5209357495248611</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5294779803246576</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5368120210594186</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5430039189291059</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5481218092379233</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5521453702625972</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5551226119346425</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5569871764046239</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5580355131585298</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5583512854486836</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5578839947675871</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5565547539501631</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5545884973438393</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5523932126298027</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5498786194906018</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.546963540951009</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5438715466948087</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5405173097639508</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5371147603806884</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5337114985580881</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5304683814742777</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5272779540387864</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5242668766179743</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5213428448206379</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5185252578397891</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5158323352058674</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.5132791242433435</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.5107348047620779</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.5083813239670949</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.5062262654918069</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.504270497436161</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.5025124790120394</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.5009009498796814</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4994910773804301</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4982766373967557</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4972487290560301</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4963976078662656</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4957130149326086</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.495184359037585</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.49480086854477</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4945517241008386</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.4944261740834129</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3515,135 @@
       <c r="E22" t="n">
         <v>0.3200225212041615</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.3274839743896588</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3333090922848622</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3377230557987221</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3408485341080332</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3428044628771034</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3437052247952299</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3435312601502103</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3423835212504323</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3402182669115358</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3374408326892543</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3341536565344055</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.33031659351127</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3258883210165795</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3211260141929235</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3164028041515047</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3116293451233859</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3067538412299614</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3019598440921248</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2971949406384145</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2926137433052503</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2882430861366155</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2841682677136649</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2803178666158875</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.276749918465743</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2734101275875667</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.27030603842692</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2674422827890622</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.264820614628916</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.262404740812634</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2602535310376006</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2583580372385311</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2567073524965927</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2552894879369762</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2540894967404141</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2531044147062477</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2523188491306204</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2517172105475176</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2512841029127618</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2510044705186708</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2508637057281716</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2508477364793731</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2509430966413185</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.2511369809039676</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3661,135 @@
       <c r="E23" t="n">
         <v>-0.09967840212277064</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.0960965964870597</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.09370383435456731</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.09228911260493164</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.09176570585110294</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.09204971606481425</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.09305977985146283</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.09481862415389672</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.09724274177400098</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.1003511073252759</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.1038454996976807</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1076537235441358</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1117904711479713</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1162569545593438</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1208796746021741</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.1254464553778479</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1299974693312499</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1345388040597919</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1389722448994384</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1433007372478396</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1474523091737768</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1514101861137985</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1551529020802331</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1586948207269465</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1620306403754382</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1651648221626416</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1680929508358933</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1708132429545635</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1733260343849399</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1755892580389327</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1776344673154423</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1794706346616984</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1811071909429238</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1825542452644644</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1837891594680225</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1848519230076905</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1857553053994405</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1865117990128665</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1871336780364721</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1876329175549335</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1880211148897419</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1883094241812106</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1885085040052749</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.1886284768957318</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3807,135 @@
       <c r="E24" t="n">
         <v>2.367897713505404</v>
       </c>
+      <c r="F24" t="n">
+        <v>2.321215305118465</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.271198001801544</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.22040937797066</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.169225453686499</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.117947551056577</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.066863329381257</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.015090384023567</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.963191713079865</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.910686749953862</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.860288514748803</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.81214846690373</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.765731181443236</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.720843958831196</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.678603235830778</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.640014274057725</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.604417608391387</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.571618215209746</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.541867975454888</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.515015458533397</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.491096544251022</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.469929743839342</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.451235519386944</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.434891773887632</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.42062806230556</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.40840559355515</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.398132899834107</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.389684547137059</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.382931950475782</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.37816979744849</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.374920996259553</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.372982121059246</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.372212775173756</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.372483507601541</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.373826930117297</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.375982747659339</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.378812703554192</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.382209882541614</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.386077458876628</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.390326777836753</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.394877030587841</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.399655014970978</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.404594862076784</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.409637726361522</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3953,135 @@
       <c r="E25" t="n">
         <v>0.4251236243150044</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.4139211768974453</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4033844949461696</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3932772708763598</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3838306032293004</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3750549006640792</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3669401280942102</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3594683833958882</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3525564967069345</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3462069655443722</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3404670721152711</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3354068887480207</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3309615812474342</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3270851715872843</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3238777509487578</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3213932740300958</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3193664676626254</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3177659534038196</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3167150479658631</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.316017354597173</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3158026430261211</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3159108749415043</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3163438940163464</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3168862938728463</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3176720786147942</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3185213123890349</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3195172249733366</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3206440973346636</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3218794589671026</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.323117998090991</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3246181140800157</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3261666230028531</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3277312879322993</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3292970982672159</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3308135702725187</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3323849097598643</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.333924132878914</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3354179981405364</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3368607553239943</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3382483685171166</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3395779149009395</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3408474307323457</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3420558005581195</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.3432026554246641</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4099,135 @@
       <c r="E26" t="n">
         <v>0.3031052037976607</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2876356257741177</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2728488753315061</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2585548289919848</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2450341534292851</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2323087743208965</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2203763116051635</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2092076916868497</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.198729902293264</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1889654611744255</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.179998814551644</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1719144295488675</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1646562120464379</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1582115472586833</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1526910447981861</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1480876165362814</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1441215193492766</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1407983630071553</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1382158361031296</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1361927087260822</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1348240154926987</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1339174842030467</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1334151301150726</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1331165015377223</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1331221843520984</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1332705877886069</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1336551698107523</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1342535169758925</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1350353457339362</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.13597607898486</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1372667207713503</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1386537248279831</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1400956268382548</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1415713170971655</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1430682874240899</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1446522884665117</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1462185858673018</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1477490166198601</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1492344002887275</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1506677692944169</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1520436590380765</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1533579205532239</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1546075828263556</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.1557907248968785</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4245,135 @@
       <c r="E27" t="n">
         <v>0.18327901482253</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1691085873813473</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1558204493913369</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1429879858848973</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1309601945223848</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1197460907435503</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1093256259281944</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09968042050303083</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.09066880075126633</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.08228914762091608</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.07459769507842173</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.06771438338060716</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.06154118061859894</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.05599490626096017</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.05124584053269504</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.04743403588550314</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.04414775124942683</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.04132985461841622</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.03921535088456396</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.03748682648997676</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.03639484084320535</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.03570784788012216</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.03547455658289556</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.03534204947848961</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.03555822039289572</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03582575391843353</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.0362848226152997</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03692095450481653</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.03770831072559408</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.03844995435458132</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.03960474545694452</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04084780388822976</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.04213452022308922</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.04344620394372106</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.04469606190185794</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.04606551911297648</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.04742151785456843</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.04874496620268128</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05002785538152688</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05126434729151359</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05244990122715932</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.05358109175229007</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05465548991753071</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.05567155459441804</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4391,135 @@
       <c r="E28" t="n">
         <v>0.9617876767626632</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9481535159442275</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9353352678454178</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.923174392341214</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9118931938532335</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9014949879932698</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8919627940894317</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.883223233684882</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8751962517876097</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8678344334661924</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8612900673129635</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8556195845933399</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8507033220915368</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8464448582102744</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8429855604785319</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8404570505814178</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8385324890084979</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8371290764357011</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8363971464672345</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8360911817749611</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8363668217616097</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.837052449121695</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8381722976726785</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8394658294148442</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8410876403915989</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8428178477671571</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8447309027081756</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.846803631548493</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8490067446753202</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8511615773200989</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8535865917244184</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8560646434133864</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8585588018542045</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.861049807155655</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8634424477154229</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.865878365747234</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8682683875329691</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8705970034078766</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8728565701795029</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.875041540762814</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8771478320423393</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8791726376580054</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8811142849441068</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.8829721022056953</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4537,135 @@
       <c r="E29" t="n">
         <v>2.807420629688734</v>
       </c>
+      <c r="F29" t="n">
+        <v>2.740218155204375</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.669242397334167</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.597439867069788</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.525555666893983</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.454192145147458</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.383885302780765</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.313999425308564</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.245321104224696</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.177671350597514</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.113752275337519</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.053762037072672</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.997366968845358</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.944693271987827</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.896709194951111</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.853755694611451</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.815340100746837</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.781515340282068</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.752075246256152</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.727134922103404</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.706191833285444</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.688916840554487</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.674484990723242</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.66307114917756</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.653923142557674</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.647289710554792</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.642988912120528</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.640806025586375</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.64052927374618</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.643040691078428</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.647058407704707</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.652304935106365</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.658583349113368</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.665716580785174</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.673961183677681</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.682718345454653</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.691822216625393</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.701148326718476</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.710588357254321</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.720047291378231</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.72944244954045</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.738702669813546</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.747767493503924</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.756586352519192</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4683,135 @@
       <c r="E30" t="n">
         <v>0.8576901593971655</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8382825176481471</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8198528839071328</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8021661648063334</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7855589435112259</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7700530665061216</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7556401513475082</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.7422728317838689</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7298551935827865</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7183964204026279</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.7080118789978556</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6987950156660522</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6906553164370202</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6835513515353187</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6776224884464642</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6728871328785894</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6689775420264689</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6658724935928603</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6637014470632245</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6622151683392007</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.661542674883196</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6614436290191201</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6618635142720778</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6625314582655899</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6635858673486034</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6648051975379141</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6662988978343233</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6680363269507671</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6699777572637085</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.672042725512398</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6745082133517502</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6770649913573058</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6796615253624981</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6822713396557241</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6848503079536927</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6875064047347033</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6901126848087314</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6926474645368825</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.6951001582387845</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.6974630340954191</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.699730324204171</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7018979709302651</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7039634358364106</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.7059255227303721</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4829,135 @@
       <c r="E31" t="n">
         <v>-0.2947995806411149</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3125121826469598</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3289334690527355</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.3445104019236433</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.3589294691709664</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.3722049338874552</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.3843793250032227</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.3954356346347988</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4055216868528846</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4145745259299361</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4227154372402383</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4298574310693927</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4360321833752447</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4412380951413368</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4454358438909775</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4487415974669356</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.451458988659205</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4535586090383923</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4549472150343271</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4558401013243209</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4561286649064207</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.456048226828755</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4556592831219272</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4552025184407351</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4545315576192709</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4538448806139356</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4530131243263514</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4520546643036755</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4509977741245561</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4498869101538837</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4484464393754318</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4469883017660589</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4455539795709315</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4441594717903301</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4428177109652138</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4414267676659202</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.440110766233564</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4388839665560212</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4377498764854543</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4367098872104208</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.435764161802644</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.434911851708436</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4341512460854328</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.4334799056993467</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4975,135 @@
       <c r="E32" t="n">
         <v>0.6812350515513451</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6680377775055074</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6556270665257212</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6438046451611075</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6327920509394401</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6225911638659732</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6131839901712152</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.604540130109813</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5965800422372957</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5893123324841232</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5827783068152222</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5770374218182015</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5720307286976035</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5677304057494089</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5642155813773516</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5614805592783457</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5592763986066244</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5575918537454917</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5565130853210635</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5558679896940284</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.55574636727214</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5559823677583089</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5565420770276815</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5572383199022036</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5581732079800016</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5591927084506833</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5603762851015289</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5617050117040315</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5631535552307179</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5646628831291525</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5664350373809152</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5682555521822701</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5700907777890105</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5719244796180075</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5737268811396956</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5755772097356002</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5773881854531666</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5791462546423369</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5808454631271011</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5824816767817084</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.584051967807468</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5855544481631768</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5869881470395013</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.5883528982088642</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5121,135 @@
       <c r="E33" t="n">
         <v>0.8609440305992146</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8502963318929215</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8404742095861375</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8312228389179006</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8227369577011862</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8150031614861935</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8079908878883314</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.8016744312813888</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7959573965956952</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7908371205145405</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7863189605126032</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7824568165092352</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7791867703591873</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.776461022580115</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7743523345764628</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7728896628094113</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.771825144320439</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7711288247860665</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7709109492707741</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.77098390216029</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7714691989879001</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7722156234269481</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7732297516885313</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.774307151648095</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7755817335232639</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7768813043079477</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7782874033107748</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7797872554777271</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7813617337120997</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7829020959662807</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.784667607761757</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7864576659905097</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7882442533033187</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7900156362360314</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7917215510972755</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7934687286377484</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7951763405034835</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7968337386369511</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7984372200799845</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.7999845217169436</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.8014742565477387</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.8029057773884893</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.8042790821877897</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.8055947281156512</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5267,135 @@
       <c r="E34" t="n">
         <v>-0.7245706580102415</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7387894468685564</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7520738490787081</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7647239103368885</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7765147197417603</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.7874583297360215</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.7975866868131155</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8068820345640854</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8154438480389263</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8232032527512256</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8302742656362535</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8365952902211834</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8421638262795641</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8469413438287596</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8509255303226292</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8542777300435018</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8571804504818195</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8595727174570507</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8614292440102562</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8628627358919276</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8638408914247858</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8645347272216336</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8650317888049244</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8654612445778733</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8657571033046754</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8660217504462926</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8661617411203426</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8661907702358453</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8661297257310805</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8659334724544803</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8654846136112058</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.865009552840085</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8645386207909714</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8640837037726389</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8636150119668439</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8631007162677894</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8626310362643707</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8622165613275203</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8618601102565103</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8615629876939523</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8613256238419933</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8611477272769161</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8610283894552569</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.8609661783968101</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5413,135 @@
       <c r="E35" t="n">
         <v>0.8161587413816894</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8140218398746211</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8123017880602051</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8109752353798039</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8100175114150772</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8094035453154687</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.809108533480222</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8091235266976579</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8094290846171218</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8100238714957003</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8108472811889507</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8118726105264723</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8130944193843652</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8145101636891462</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8160721815456876</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8177113742787446</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8194301919779207</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.8212273553718524</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8230641529814879</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8249397966559482</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8268208406697442</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8286951372895137</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.830543326107603</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8323706455906361</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8341645082843703</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8359279457499752</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8376555917533537</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8393427985538692</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8409858133335112</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8425781226421801</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8441145005115143</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8455939157500784</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8470164254370371</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8483826398930842</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8496857045536551</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8509327007141861</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8521256321549273</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8532669170716792</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8543591515506236</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8554050467847054</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.856407385804545</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8573689862956243</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8582926680977669</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.8591812250044298</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5559,135 @@
       <c r="E36" t="n">
         <v>0.7774187867874971</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7736230211114912</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7705096132606671</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7680305740451747</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7661425350784603</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7648029959220449</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7639702346183033</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7636408264248274</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7637831284483509</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7644101336121158</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7653905260046222</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7666801191353655</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7682869991557814</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7702263068190313</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7724009180256799</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7746573052931756</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7770229490750831</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7795157816341132</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7820525411033762</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7846536939219325</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7872442072660391</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7898065362799999</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.7922922436090613</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7947319037719054</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.7970890777297646</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.7993882795494527</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.8016213452407078</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.8037818266425476</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8058647443055337</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8078924556904408</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8098228274372133</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.811656477654824</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8133946953570981</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8150395027279174</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8165972722053404</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8180625734911742</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8194399818606006</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8207342466900944</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8219502870348669</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8230931254558896</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8241678244372825</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8251794304289577</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8261329254626839</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.8270331858505918</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5705,135 @@
       <c r="E37" t="n">
         <v>0.7425040411879127</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7383654362145656</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7349645878857441</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7322405952056501</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7301507583881159</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.728648920837939</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7276895467998089</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7272689650585131</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.727350379011266</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7279470710201472</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7289179418177161</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.730217686470535</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7318535309094247</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.733839580026687</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.7360748000399152</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7383999561090372</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.740838722100768</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7434087647006687</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7460266148837532</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7487089035908269</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7513815800133331</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7540236618482398</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7565867945324224</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7590976363750807</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.761523037580892</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7638839409795499</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7661740958669564</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7683869612182648</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7705173717785868</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7725839837468222</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7745518504665141</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7764176401325151</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7781824680975982</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7798485383103423</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7814206104593269</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7828969027214483</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7842806753769241</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7855768758260007</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7867907505741378</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7879276575931881</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7889929896600484</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7899921150074447</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7909303267614733</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.7918127999179406</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5851,135 @@
       <c r="E38" t="n">
         <v>0.687271834690016</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6834660489076074</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6797817533064412</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6763010125160772</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6730427367654058</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6700229795079055</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6672538657980582</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6647347709864788</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.662488373743133</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6605357309678688</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6588878338957933</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6575344647425732</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6564868141483489</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6557773621741866</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6553796690258861</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6551965256273622</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6552456481689291</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6555546973410229</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6560542009449426</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6567788686185648</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6576499182107907</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6586475152341847</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6596972440113926</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6608413681733392</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6620131630501954</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6632527819634642</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6645460357101652</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6658805002658879</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6672448312872701</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6687143554013912</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6701807988784907</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6716374147261055</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6730772289792785</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6744941926113857</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6759160683765761</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6772991423771949</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6786410750188958</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6799397673461737</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6811937741128686</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.682402267617887</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6835649670055221</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6846820686555216</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6857541808047426</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.6867822627112298</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5997,135 @@
       <c r="E39" t="n">
         <v>0.5997964852370405</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5981584151472481</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5969770252002849</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5961988039645925</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5957854159897714</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5956999897384934</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5959077031650496</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5964078009012901</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5971723026299017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5982113856696958</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5994175884927018</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6007616800009351</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6022541475663621</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6039076613796694</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.6056517843901528</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.6073813044223473</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6091225352174661</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.6108926585000345</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6126401143737984</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6143826673010097</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6160764017824689</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6177147712793409</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6192723510420677</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6207724524432223</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6221971344346858</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6235648164276053</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6248742452846442</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6261246624890744</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6273159959030278</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6284663219487692</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6295525605464191</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6305769187704015</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6315424309940945</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6324523682027227</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6333159738574613</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6341289128726864</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6348949783479827</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6356181136874433</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.636302172228649</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6369508747826854</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6375677882941478</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6381563101210403</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6387196562367933</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.6392608528527158</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6143,135 @@
       <c r="E40" t="n">
         <v>0.7826564248762891</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7789325217203148</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7758935367338814</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7735219796113416</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7717541075637382</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7705320507190894</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7698018986831129</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7695235598165964</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7696615476618488</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7701967002558655</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7710528304090215</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7721818922272392</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7735647904319179</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7751887591287216</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7769857816741731</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7788640176040525</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.780825319540927</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7828638189838655</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7849280217125678</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7870159862724593</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7890857420253664</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7911251076423925</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7931153409481677</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7950642214867517</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.7969602999411658</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7988074003326494</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.8005992866188925</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.8023318644020695</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.8040022653718295</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.8055946744257536</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.8071117274254441</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.8085565092398935</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.8099311372608322</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8112380313338382</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8124656034486653</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8136282000956238</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.814730377129114</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8157761395466714</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8167694483640102</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8177142275659784</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8186143334881206</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8194735257914505</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8202954429989863</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.8210835824750133</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6289,135 @@
       <c r="E41" t="n">
         <v>0.5680767959679814</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5681341102506199</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5682815080027348</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5684844039371966</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5687543836821187</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5690981867879917</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5695200141329952</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5700437799340906</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5706659439289801</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5714038527593355</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.572211098808472</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5730856237063288</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5740392519690528</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5750816673391428</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5761886282508131</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5773210960382726</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5784873531174132</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5796937928194424</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5809206999668252</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5821718840082246</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5834289091152958</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5846847228208698</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.585925102795152</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5871549418593193</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5883643855540692</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5895575075838835</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5907321021081139</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5918854090903403</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5930150075508825</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5941268929744138</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5952093808687722</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5962595580469588</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5972766631070664</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5982604420513308</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5992124368428706</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.6001305172703176</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.6010147269344799</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.6018660291931751</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.6026856202238795</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6034748387300598</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.6042351296365287</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.60496801525787</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.6056750698388282</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.6063578969822693</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6435,135 @@
       <c r="E42" t="n">
         <v>0.6633562543872942</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6573273030929222</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6518023714798823</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6468175651700696</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6423681284586367</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6384466131124729</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6350419314928832</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6321674461699703</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.629827163233699</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.628067010829819</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6267859126525138</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6259496317867587</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.6255923959867723</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6257747978968852</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6263956039926522</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6272304015391517</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.6283351343200162</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6297674085598322</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6313920827862907</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6332754742776666</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.635277767788993</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.63737069377783</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6394367685273805</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6415554049380253</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6436253282398048</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6457181879633801</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.647816465914284</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6499052817577476</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.651971627497968</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6541342299467373</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6562309763653473</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6582565404419212</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.660205811721746</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6620749644251378</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6639120443083295</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6656548389485756</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6673044954079693</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6688624724078261</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6703309050279669</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6717125288939896</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6730105755093315</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6742286737467986</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6753707602392738</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.6764409986003794</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6581,135 @@
       <c r="E43" t="n">
         <v>0.6985089313591337</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6956493644589852</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6930215514357383</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6906523177319069</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6885446884320908</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.686698993594134</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6851131730413429</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.683791294959351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6827379873231194</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6819723136248727</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6814601723959013</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6811861786754007</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6811620802550653</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6814128085535582</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6818967268748116</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6825159999126591</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6832898099587639</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6842407338738886</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6853074223682121</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.6865161147346919</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6878023521759422</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.689150165363706</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6905039373036249</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6918963862969676</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6932799442760332</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6946845355780679</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6961006747848497</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.697519850306495</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.6989344867703003</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.7003957810353998</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7018298332725595</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7032321969700223</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.704599264976025</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7059282082319674</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7072381957213439</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7085017063903594</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7097183152439341</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7108880990908126</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7120115737424995</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7130896308313354</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7141234789040118</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7151145891506717</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.716064645722041</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.7169755005215577</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6727,135 @@
       <c r="E44" t="n">
         <v>0.6924049225821133</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6910941966820833</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.690255811380702</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6898182174766212</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6897478045857369</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6900097482222548</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6905704931907442</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.691433630837628</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6925674579561418</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6939797429320891</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6955596388925367</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6972790282694781</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6991440573708122</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.7011589420939156</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.7032564105903767</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7053460644527331</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7074442844070576</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7095586348299481</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.711647190476433</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7137152191003302</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.715730034221209</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7176832593817896</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7195598362114013</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7213698760909413</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7231064797845577</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7247759635787018</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7263776984969037</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7279107171873048</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7293747344386881</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7307664215766266</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7320862229186461</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7333345591905175</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7345143639851081</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7356290131613544</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7366768702602772</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7376659370063097</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7385995682958384</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7394819608894336</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7403173095090277</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7411097060122535</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7418631069713962</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7425813115515167</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.743267944317153</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.7439264421203678</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6873,135 @@
       <c r="E45" t="n">
         <v>0.6888834668215889</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6849209878529221</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6819345346957661</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6797960586821961</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6784338945006148</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6777790341953104</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6777649101866883</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6784069675261911</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6796478651177149</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6815200764031435</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6837749636759086</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6863509460965012</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6892779448663814</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6925888218412192</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6961233428984984</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.6996408291472096</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7032030999333203</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7068491042252092</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7104584970657061</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7140720138376706</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7175854364088037</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7209822368379536</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7242005600454956</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7272933082881307</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7302152009608671</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.73300816522832</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7356665042370335</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7381866806530583</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7405669394523252</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7428469639161379</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.744970168337028</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7469420841948865</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.748768755847241</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7504568549525087</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7520245181160736</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7534624034329912</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7547796712280889</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7559853527089292</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7570883740517508</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.758097488711556</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7590212128416991</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7598677710669928</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7606450523716178</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.7613605752458713</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +7019,135 @@
       <c r="E46" t="n">
         <v>-1.30273690218552</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.306275346897277</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.309913830517063</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.313642378404186</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.317435998252302</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.32127344951632</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.325136099628194</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.328909855574506</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.332557306979589</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.335900020661941</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.339199315858899</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.342449045629216</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.345466075953739</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.348018462877868</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.350289404691251</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.352750220955874</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.355162672086805</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.357291442897542</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.359383900425946</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.361190418306359</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.362977130459034</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.364746106813598</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.366742958771796</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.368711246974752</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.370874519732106</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.372999150730875</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.375085806290742</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.377135481590054</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.379149113055755</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.380694548134294</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.382229996365126</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.383755626784714</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.385270791786612</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.386774734843818</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.388046293599531</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.389318098636757</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.390588759185187</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.391856656959426</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.393120233852648</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.394378025911232</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.395628673231469</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.396870925660195</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.39810364624052</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-1.399325812798242</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7165,135 @@
       <c r="E47" t="n">
         <v>-1.014738848280642</v>
       </c>
+      <c r="F47" t="n">
+        <v>-1.017651856898416</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.020644518144195</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.02370704360076</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.026819550302335</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.029963537111161</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.033122767034397</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.036199847479965</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.039162489863515</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.041859770521857</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.044514072164693</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.047121391058034</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.049526868807877</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.051534750341718</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.053301722090794</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.055227535477312</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.057109395306569</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.058749232840614</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.060358155473164</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.061724533415049</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.063075318451294</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.064411656467079</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.065941617049404</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.067447413339284</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.069119479445572</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.070759560215324</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.072369545656983</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.073950616551133</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.075503785666593</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.07666469516272</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.077822230648948</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.07897479239049</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.080121739494386</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.081262451100592</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.082210839130296</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.083163535043362</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.084118561747841</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.085074410124727</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.086029663015019</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.086982973852459</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.087933073359833</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.088878776592258</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.08981898817</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-1.090752705720762</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7311,135 @@
       <c r="E48" t="n">
         <v>-0.8875509910276959</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8902697902621373</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8929606856660395</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8956476660919901</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8983212207123654</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.9009720097345484</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.9035924515638363</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.9060752869955478</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.908397969117844</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.9104007859376581</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.9123545301910116</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.9142616857135137</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.9159577918726539</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.9172397524636846</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.9182897052807341</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.9195416484250263</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.9207782231700572</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.9217931399739837</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.9228121966114262</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.9236154651250266</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.9244414312062246</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.925290332612865</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.926375174884811</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.9274691447746068</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.9287662819950823</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9300613100372914</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9313554593345917</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9326487348037882</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9339408222817351</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9348608694666253</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9358036186587344</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9367648221166164</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.937741860391496</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9387322240664124</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9395453128318493</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9403793090830521</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9412301031585253</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9420944166265052</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9429691900572541</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9438515438007673</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9447387841926514</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9456284104486237</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9465181187884313</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.9474058038409424</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7457,135 @@
       <c r="E49" t="n">
         <v>-0.6533403471240643</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6552424985344263</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6571317421556728</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6590337911465328</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6609405594334785</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6628447558810773</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6647404216888131</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6665387182924977</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6682225096159071</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6696613543825625</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6710784514711453</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.672474605626876</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6737151551310451</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6746350263540691</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6753818019781894</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6763058894276542</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6772303626653592</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6779872398173383</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6787572952672666</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6793623575182866</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.679993104340947</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6806489731398808</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6815005364416411</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6823645310506845</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6833960255759955</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6844291907512186</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6854638611061097</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6864993227779481</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.687534698455933</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6882695381289083</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6890213857666625</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.68978709924088</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6905642439765854</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6913504769280596</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6919905810439115</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6926449355783816</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6933103669392031</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6939841466067774</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6946637400813394</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.695346791820652</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.6960311277024379</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.6967147566423406</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.6973958700989794</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.6980728396413182</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7603,135 @@
       <c r="E50" t="n">
         <v>-0.06200717439888832</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.06386164007154112</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.06571034576760001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.06753032639665735</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.0693176489983062</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.07106844434104147</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.07277932006232525</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0744135883506233</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.07595498378134956</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.0773339376902146</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.078649875222571</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.07990497295843303</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.08102741059133015</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.08192149908025076</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.08266472949187045</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.08345973112848563</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.08420836582673039</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.08481251874124671</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.08538124391062187</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.08580858691478122</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.08621207796187974</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.08659398125654749</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.08706226312183853</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.08750666106879509</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.08802582247423876</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08851918796415495</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08898864701663399</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08943571211113231</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.08986174724418408</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.09008142528876523</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.09029434164065606</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.09050043362084095</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.09069998352788222</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.09089323867848709</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09098621188047593</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.09107934438964299</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09117211721502522</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09126417850099545</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09135519025788685</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09144482077398501</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09153274858988174</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.09161866663819708</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.09170228565062999</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.09178333682957623</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7749,135 @@
       <c r="E51" t="n">
         <v>-0.8773119785428207</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8794057078795884</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8813786531809313</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.883289243804261</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8851389909534698</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8869292725134182</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8886623676777419</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8902375085090285</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8916463834854744</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8927460269608368</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8938129252610104</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8948542347265668</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8957219213109279</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8962385573711906</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8965810296063448</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8971444723011459</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8977325600935918</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8981640075367909</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8986399012747041</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8989685150242789</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8993581592349743</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8998077426644362</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.9004984530440642</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.9012325358771114</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.9021736606761379</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.9031439995677373</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.9041427833185599</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.9051682718100942</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.9062184060722479</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.9069771067110644</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.9077776975999308</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.908614665291766</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.9094836697000754</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9103805235088513</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9111410349388174</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9119319543188615</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9127480434014577</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9135847893640854</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9144379887605808</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.915303721735277</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9161783555446039</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9170585469970584</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9179412416724588</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-0.918823670168924</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7895,135 @@
       <c r="E52" t="n">
         <v>-0.8773119785428207</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8794057078795884</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8813786531809313</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.883289243804261</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8851389909534698</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8869292725134182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8886623676777419</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8902375085090285</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8916463834854744</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8927460269608368</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8938129252610104</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8948542347265668</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8957219213109279</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8962385573711906</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8965810296063448</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8971444723011459</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8977325600935918</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8981640075367909</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8986399012747041</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8989685150242789</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8993581592349743</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8998077426644362</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.9004984530440642</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.9012325358771114</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.9021736606761379</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.9031439995677373</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.9041427833185599</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.9051682718100942</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.9062184060722479</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.9069771067110644</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.9077776975999308</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.908614665291766</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.9094836697000754</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9103805235088513</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9111410349388174</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9119319543188615</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9127480434014577</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9135847893640854</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9144379887605808</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.915303721735277</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9161783555446039</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9170585469970584</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9179412416724588</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>-0.918823670168924</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +8041,135 @@
       <c r="E53" t="n">
         <v>-1.138153304175352</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.142217959998814</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.146364896746019</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.150576644155398</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.154823891490296</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.159079889358408</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.163321588557488</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.167423686109925</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.171343115460496</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.174886444444473</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.178335151854937</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.181685246736059</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.184740310534719</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.187250677402016</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.189417454281472</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.191755265118396</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.194007765922236</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.195923644473957</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.197776838403052</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.199298480854428</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.200783355262676</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.202236004105168</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.203926735445288</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.205578113354429</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.207437105862447</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.209250986234753</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.211024172096955</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.212759956910063</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.21446124603369</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.215663646983865</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.216866819210259</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.218069749523855</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.219272550234034</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.220475193762477</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.221442115159361</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.222424010202366</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.223418593425151</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.224424084886041</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.225438713259509</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.22646070006569</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.227488281320359</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.228519728923654</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.2295533688357</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>-1.230587596054693</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8187,135 @@
       <c r="E54" t="n">
         <v>-0.1891906365668111</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1899205598659605</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1906522431634381</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1914100638591339</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1921904169332028</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1929894777659243</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1938039976887717</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1945711198592489</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1952804411026114</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1958417247472645</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1964135326940205</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1969958200873202</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1974944804053796</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1977958391401584</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1980020655421942</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1983521983446959</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1987223948935458</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1989965587807997</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1992966506956522</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1994995354788329</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1997334015288548</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1999958281114464</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.2004009284864878</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.2008225086413309</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.2013647856627548</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.2019137290444651</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.2024683066423845</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.2030269936835871</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.2035882244341955</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.2039458199024598</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.2043157604079381</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2046947820148005</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2050805681184351</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2054709881326067</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2057584457294869</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2060531097454187</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2063523873837129</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2066542081004572</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2069567095819788</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.2072582088958602</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2075571965453176</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.207852331229477</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2081424336299315</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-0.2084264792803889</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8333,135 @@
       <c r="E55" t="n">
         <v>-1.025408451755502</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.029673466672125</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.033964153442168</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.038237813170685</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.042481652449985</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.046681543653317</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.050825050440567</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.054824121754402</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.058641512052786</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.062122911833971</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.065488296197872</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.068740137949595</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.07171963063588</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.074218545896886</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.076404977442574</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.078715084895693</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.080933706817169</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.08284917325252</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.084696926783129</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.08624734804674</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.087754248775773</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.089221035479666</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.090879607180402</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.092491527156474</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.094269929826823</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.095997607648981</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.09767973452189</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.099319552955492</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.10091988046345</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.102083616261945</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.103240577609649</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.104388335102946</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.105527139260345</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.1066572962809</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.107578109818595</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.108504630323946</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.109434568627495</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.110366768446876</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.111300152087304</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.1122336475804</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.113166197245932</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.114096770891932</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.115024377277203</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>-1.115948073478516</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8479,135 @@
       <c r="E56" t="n">
         <v>-0.9110664166678117</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.9138477549917843</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.9165922116266066</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.9192967900159505</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.9219627113488192</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.9245925721306884</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.9271885940474736</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.929689051679231</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.9320781609327076</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.9342447747968502</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.9363717570928073</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.9384624209617127</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9403995339358034</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.942032287918231</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9434899427535651</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9450935803090553</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9466843285763872</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9481053334346017</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9495225825516393</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9507700421695794</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9520238911345043</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9532844287211182</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9547119262526433</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9561350189546963</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9576983606844479</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9592464395433775</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9607774195476491</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9622903055656178</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9637841508381886</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9649732779223881</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9661563122420416</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9673329315797148</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9685013541720007</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9696598036314555</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9706605457954429</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9716559218872234</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9726446395859047</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9736249821952422</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9745953874616404</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9755544899499144</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9765011164744202</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9774342766672151</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9783531524903162</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>-0.9792570872058046</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8625,135 @@
       <c r="E57" t="n">
         <v>-0.9679250735148446</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9672000705725744</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9670492267637734</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9674241630918</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9682798103629826</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9695724381446404</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.9712600925898623</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.973261463044069</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9755261203019188</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9779362725256432</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9805823049464513</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9834284955588987</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.986348694907727</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9891860402688418</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9920018248536614</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9950242599104189</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9980988005940281</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-1.001067260221087</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-1.004047809786377</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-1.00687233885207</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-1.009678715358427</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-1.012453610605993</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-1.015338995128261</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-1.018168961828052</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-1.021079524656781</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.023917130498996</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.026676297936887</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.029352474758983</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.031942167386636</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.034145130816425</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.036266088127184</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.038304062382921</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.040259216279594</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.042132353490379</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.043765320118031</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.045325566072073</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.046815038686444</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.048236168641031</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.049591641478213</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.050884329109081</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.052117239684619</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.053293473535163</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.054416183930405</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-1.055488542341951</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8771,135 @@
       <c r="E58" t="n">
         <v>-1.137711877972934</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.134870633090321</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.132442146451755</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.130465156985342</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.12892985086386</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.127825989650784</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.127140891597773</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.126807943238479</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.126812144608662</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.1270668647642</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.127692976781719</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.128662525958711</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.129873960863173</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.131214416320725</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.132739653239301</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.134606376688787</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.136688674139073</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.138866530939186</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.141204724218683</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.143580901378395</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.146066808828781</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.148638868820398</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.151370081984429</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.154143778304328</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.157030352304563</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.159923600117649</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.162807590111577</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.165669092081044</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.168496444492171</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.171084082174395</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.173616554072228</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.176088491832728</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.178493797581579</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.180827461499227</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.182971856780251</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.185038257518634</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.187025890734622</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.188934032541107</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.190762677426353</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.19251250384832</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.194184785436001</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.195781303407171</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.197304264980775</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-1.198756228155474</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8917,135 @@
       <c r="E59" t="n">
         <v>-0.8371385574348151</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8358913679940325</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.834723561743691</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8337137475802241</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.8328710750311433</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.8322020699966286</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.8317111864878191</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.831317884632373</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.8310222588950222</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.8307192628860877</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.830622248968903</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.8307250926466453</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.8309107464582783</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.8310487882481362</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.8312570945786251</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.8317911616229083</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.832497523186901</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.8332389183714117</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8341334452475477</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8350385407192021</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8360749327304087</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.837226435895656</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8385979788914607</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8400475396350159</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8416719715958989</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8433441423364686</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8450536086915096</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8467903593515963</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8485450376639923</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.850089394025707</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8516438517229378</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8531996717194121</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8547493751285674</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8562863563614335</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8576841231637852</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8590627246926691</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8604173197534239</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8617439772321209</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8630394752868831</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8643012330495831</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8655272544724462</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8667160744172429</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8678667064754102</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-0.8689785927521624</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +9063,135 @@
       <c r="E60" t="n">
         <v>-0.478823022046958</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4752696108400484</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4719748989050582</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4690058610970397</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4663645564854653</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4640488275077514</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4620542174247914</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4603263005699141</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4588645785914187</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4576127734348046</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4566797871686148</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4560481629430769</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4556496856608824</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.455417929059679</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.455396029509964</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4556735394581701</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4561653029348588</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4568003056371243</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4576095380888582</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4585203040568384</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.459563897857875</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4607180886527869</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4620107080646672</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4633741280709925</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.464838013119231</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4663420678257354</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4678741597681669</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4694224139210623</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4709759904716805</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4724245403448405</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4738598165994554</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4752722640483754</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4766549981523655</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4780023149378561</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4792466676790783</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4804472373468194</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4816004844061153</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4827042852392129</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4837572777539939</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4847587345147265</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4857084846039885</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.486606843456085</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4874545473078479</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-0.4882526920561712</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9209,135 @@
       <c r="E61" t="n">
         <v>0.3799115506339073</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3801060384648342</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3802967030387409</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.380482950321264</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3806617681921723</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3808317701754108</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3809920195537983</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.381155336986662</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3813247095005241</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3815220432418961</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3817089983048523</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3818848030179797</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3820735563480248</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3823051251789114</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3825533994544653</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3827565311435696</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3829485958256161</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3831609360073805</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3833617316332213</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3835852787656305</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3837979841279525</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3840020831464883</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3841678901459666</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3843306918468727</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3844624489780423</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3845950591471827</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3847288855559926</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3848648098365428</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3850036915794027</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3852030258038728</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3854028841387547</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3856052583650656</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3858109917132394</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3860207344250963</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3862651018294889</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.386512594158028</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3867641352092991</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.387020131959325</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3872808679321117</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3875465440441697</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3878172891128625</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3880931675365114</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3883741864580112</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.3886603025774055</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9355,135 @@
       <c r="E62" t="n">
         <v>-1.20925726328434</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.210755656390895</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.21280206377405</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.215268111873687</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.21812691417039</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.221341163100381</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.224873386291383</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.228660829270529</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.232637440881447</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.236678065580868</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.240859713587461</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.24515773896997</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.249434480886694</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.253504309526071</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.257447687671896</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.261560715112162</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.265654939828472</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.269541176884982</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.273385984966565</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.27697671256825</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.280505968011053</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.283958439015637</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.287523434463623</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.290985419917536</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.294529982471404</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.297958226873254</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.301272475836025</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.304471010507844</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.307552638718015</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.310142002543795</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.312637627541438</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.315030914980759</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.317322916125952</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.319515972501407</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.321417204094624</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.323238044665266</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.324977846821582</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.326639844666003</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.328227746289584</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.3297453940853</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.331196692684659</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.332585564775709</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.333915914022482</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-1.335191593022343</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9501,135 @@
       <c r="E63" t="n">
         <v>-0.6686258853975309</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6618863295525084</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6551447040312679</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6486411838286499</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6424131587270665</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.636488852004084</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.6308917962787608</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.6255237596551979</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.6204286892301456</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.6155328489258491</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.6111124722324199</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.6071626387274457</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.6035920255206412</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.6003360210040987</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5975023524686691</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.595220532605247</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5933751990309725</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.591894553666195</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5908096483192886</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5900517431588043</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5896356954112976</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5895257670949322</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5897138984772872</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5901389172900684</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.590795806827222</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.591635154089707</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5926361363784167</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5937768792559305</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.59503652337595</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.596348341813019</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.5977418868655868</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.599194603629112</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6006894828641893</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6022114631966093</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6037059748779307</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6052010720444035</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6066844179617514</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6081467028129292</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6095801116010644</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6109781017927008</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.612335293535378</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6136473708913522</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6149109861117144</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-0.6161236668653324</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9647,135 @@
       <c r="E64" t="n">
         <v>-0.9080885746956717</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.9048677232843029</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.9021397389718107</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8999612129875902</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8982980579840295</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8971136952912947</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.896373144636224</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8959544662581053</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8958273862270285</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8958531555887943</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8962285750156067</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8969207829245232</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8977804201805194</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8986428333784869</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8996101276802869</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.9009426352527489</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.9024586631227633</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.9039931245643809</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.9056700688902088</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.9073157190122183</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.9090655417715539</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.9108970521282717</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.9129378551367004</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.915018268237721</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.9172618257544483</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.9195143581381213</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.9217668891149461</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9240094646340486</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9262330902953966</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9281510812094111</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9300472890317616</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9319113057343233</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9337375579373781</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9355216782381932</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9371073814427655</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9386514922648055</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.940150055020376</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.9416013167382775</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9430042256218071</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9443582479167379</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9456633000327159</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9469196932091491</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9481280820826254</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>-0.9492894165125114</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9793,135 @@
       <c r="E65" t="n">
         <v>-0.09208876266227348</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.08799727970059719</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.08411714640178057</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.08053271162841991</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.07724701797844057</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.07425914671259594</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.07156628153479042</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.06911545328833585</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.06691220297981762</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.06491053103851495</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.06321667022280804</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.06181532304141944</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.06065029084454063</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.05967314489339205</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.0589208785672741</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.05845449761988071</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.05820599492630372</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.05812363351720513</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.05822274855326576</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.05845161569338327</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.05882315537524609</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05931621315425168</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.0599396159093884</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.06064700775363896</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.06145012086928262</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06230839765841006</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06321032553293456</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06414440117071028</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06510002427498912</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.06600547203492593</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.06691307587797247</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.06781296966527561</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.0686980713900498</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.06956241272495539</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07035840728658641</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07112385594986906</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.07185468624625323</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07254828110047573</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.0732027574177881</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.07381684179649743</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.07438980006681982</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.07492137442045356</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.07541172435080873</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>-0.07586137120090566</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9939,135 @@
       <c r="E66" t="n">
         <v>-0.7923158473983347</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7924517976453802</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7928913703852947</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7935681294532326</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7944876013944042</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7956476488046428</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7970424991040926</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7986563469022447</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.8004619211274719</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.8024032116263962</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.804515749376866</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.8067867628819781</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.8091464101225437</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.8114995379650898</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.813882319334879</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.8164362643401186</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.8190592854399497</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.8216482577295366</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.824276974710006</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.8268308353237633</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8293955491982663</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8319548770088518</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8345949468144873</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8372011766270571</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8398592465291088</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8424637726071602</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8450091378953445</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8474890078500092</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.849897915284177</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8520349414876289</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8540995369147106</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.856085566884184</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8579909734022658</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8598148046199037</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8614489488418439</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8630057353275028</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.864484917767024</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8658880588071434</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8672172782823833</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8684750759931114</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8696642522332931</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8707878423941118</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8718490583195958</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-0.87285123558761</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +10084,135 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7857770506097791</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7846066012756073</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.7837048278382609</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.7830583199915176</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.7826776806581548</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.7825732580924413</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.7827504352031487</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.7831985536945665</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.7839088563664044</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7848401264964521</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.786034528014092</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7874758164083978</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7891073296722492</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7908573069063136</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7927480216187781</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7948710677357388</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7971485625893372</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7994974456398568</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.8019526754340187</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.8044300527003845</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.8069703967456503</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.8095558192723976</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8122332673062932</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8149222370347275</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8176671812417147</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8203941593728039</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8230878905690149</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8257371657334217</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8283323288632607</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8307235103698047</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8330377388782145</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8352743489820912</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8374291545636088</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8394987642625927</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8413960700862101</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8432020980615519</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8449187558585327</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.846546833233759</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.848087674008313</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8495432229856329</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8509159409811135</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8522087155999304</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8534247785695114</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>-0.8545676303886285</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_variables_matrix_5.xlsx
+++ b/PLSstatic_predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-0.2651855620439425</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-0.2657321220162879</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>0.2348776883609798</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0.2348666876363665</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>0.2193599638828</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0.2192135929117965</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.08275715738113283</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.08298906318450994</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.1904354753263193</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.1905067430845206</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.4289253579511193</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.4296089674528252</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>-0.1518693851917409</v>
       </c>
-      <c r="AV8" t="n">
-        <v>-0.152346046609304</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>-0.3513756124229848</v>
       </c>
-      <c r="AV9" t="n">
-        <v>-0.3521198727391791</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.3977112330819673</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.397798406316877</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>-0.224286569132418</v>
       </c>
-      <c r="AV11" t="n">
-        <v>-0.2247525408808285</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2181,9 +2148,6 @@
       <c r="AU12" t="n">
         <v>-0.1205483814910826</v>
       </c>
-      <c r="AV12" t="n">
-        <v>-0.1209789362591248</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2327,9 +2291,6 @@
       <c r="AU13" t="n">
         <v>-0.06196651696755257</v>
       </c>
-      <c r="AV13" t="n">
-        <v>-0.06194183088785177</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2473,9 +2434,6 @@
       <c r="AU14" t="n">
         <v>0.02818727796945406</v>
       </c>
-      <c r="AV14" t="n">
-        <v>0.02784019610421395</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2619,9 +2577,6 @@
       <c r="AU15" t="n">
         <v>-0.1285031183430621</v>
       </c>
-      <c r="AV15" t="n">
-        <v>-0.1288839274751328</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2765,9 +2720,6 @@
       <c r="AU16" t="n">
         <v>0.2968356701516719</v>
       </c>
-      <c r="AV16" t="n">
-        <v>0.2964168951600002</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2911,9 +2863,6 @@
       <c r="AU17" t="n">
         <v>0.4271316156559376</v>
       </c>
-      <c r="AV17" t="n">
-        <v>0.4277301555377321</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3057,9 +3006,6 @@
       <c r="AU18" t="n">
         <v>-0.174815706429145</v>
       </c>
-      <c r="AV18" t="n">
-        <v>-0.1744599171707645</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3203,9 +3149,6 @@
       <c r="AU19" t="n">
         <v>0.290908666457154</v>
       </c>
-      <c r="AV19" t="n">
-        <v>0.2912711578676631</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3349,9 +3292,6 @@
       <c r="AU20" t="n">
         <v>0.187074833617206</v>
       </c>
-      <c r="AV20" t="n">
-        <v>0.1868037243786867</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3495,9 +3435,6 @@
       <c r="AU21" t="n">
         <v>0.4945517241008386</v>
       </c>
-      <c r="AV21" t="n">
-        <v>0.4944261740834129</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3641,9 +3578,6 @@
       <c r="AU22" t="n">
         <v>0.2509430966413185</v>
       </c>
-      <c r="AV22" t="n">
-        <v>0.2511369809039676</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3787,9 +3721,6 @@
       <c r="AU23" t="n">
         <v>-0.1885085040052749</v>
       </c>
-      <c r="AV23" t="n">
-        <v>-0.1886284768957318</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3933,9 +3864,6 @@
       <c r="AU24" t="n">
         <v>1.404594862076784</v>
       </c>
-      <c r="AV24" t="n">
-        <v>1.409637726361522</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4079,9 +4007,6 @@
       <c r="AU25" t="n">
         <v>0.3420558005581195</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0.3432026554246641</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4225,9 +4150,6 @@
       <c r="AU26" t="n">
         <v>0.1546075828263556</v>
       </c>
-      <c r="AV26" t="n">
-        <v>0.1557907248968785</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4371,9 +4293,6 @@
       <c r="AU27" t="n">
         <v>0.05465548991753071</v>
       </c>
-      <c r="AV27" t="n">
-        <v>0.05567155459441804</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4517,9 +4436,6 @@
       <c r="AU28" t="n">
         <v>0.8811142849441068</v>
       </c>
-      <c r="AV28" t="n">
-        <v>0.8829721022056953</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4663,9 +4579,6 @@
       <c r="AU29" t="n">
         <v>1.747767493503924</v>
       </c>
-      <c r="AV29" t="n">
-        <v>1.756586352519192</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4809,9 +4722,6 @@
       <c r="AU30" t="n">
         <v>0.7039634358364106</v>
       </c>
-      <c r="AV30" t="n">
-        <v>0.7059255227303721</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4955,9 +4865,6 @@
       <c r="AU31" t="n">
         <v>-0.4341512460854328</v>
       </c>
-      <c r="AV31" t="n">
-        <v>-0.4334799056993467</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5101,9 +5008,6 @@
       <c r="AU32" t="n">
         <v>0.5869881470395013</v>
       </c>
-      <c r="AV32" t="n">
-        <v>0.5883528982088642</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5247,9 +5151,6 @@
       <c r="AU33" t="n">
         <v>0.8042790821877897</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0.8055947281156512</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5393,9 +5294,6 @@
       <c r="AU34" t="n">
         <v>-0.8610283894552569</v>
       </c>
-      <c r="AV34" t="n">
-        <v>-0.8609661783968101</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5539,9 +5437,6 @@
       <c r="AU35" t="n">
         <v>0.8582926680977669</v>
       </c>
-      <c r="AV35" t="n">
-        <v>0.8591812250044298</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5685,9 +5580,6 @@
       <c r="AU36" t="n">
         <v>0.8261329254626839</v>
       </c>
-      <c r="AV36" t="n">
-        <v>0.8270331858505918</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5831,9 +5723,6 @@
       <c r="AU37" t="n">
         <v>0.7909303267614733</v>
       </c>
-      <c r="AV37" t="n">
-        <v>0.7918127999179406</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5977,9 +5866,6 @@
       <c r="AU38" t="n">
         <v>0.6857541808047426</v>
       </c>
-      <c r="AV38" t="n">
-        <v>0.6867822627112298</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6123,9 +6009,6 @@
       <c r="AU39" t="n">
         <v>0.6387196562367933</v>
       </c>
-      <c r="AV39" t="n">
-        <v>0.6392608528527158</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6269,9 +6152,6 @@
       <c r="AU40" t="n">
         <v>0.8202954429989863</v>
       </c>
-      <c r="AV40" t="n">
-        <v>0.8210835824750133</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6415,9 +6295,6 @@
       <c r="AU41" t="n">
         <v>0.6056750698388282</v>
       </c>
-      <c r="AV41" t="n">
-        <v>0.6063578969822693</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6561,9 +6438,6 @@
       <c r="AU42" t="n">
         <v>0.6753707602392738</v>
       </c>
-      <c r="AV42" t="n">
-        <v>0.6764409986003794</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6707,9 +6581,6 @@
       <c r="AU43" t="n">
         <v>0.716064645722041</v>
       </c>
-      <c r="AV43" t="n">
-        <v>0.7169755005215577</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6853,9 +6724,6 @@
       <c r="AU44" t="n">
         <v>0.743267944317153</v>
       </c>
-      <c r="AV44" t="n">
-        <v>0.7439264421203678</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6999,9 +6867,6 @@
       <c r="AU45" t="n">
         <v>0.7606450523716178</v>
       </c>
-      <c r="AV45" t="n">
-        <v>0.7613605752458713</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7145,9 +7010,6 @@
       <c r="AU46" t="n">
         <v>-1.39810364624052</v>
       </c>
-      <c r="AV46" t="n">
-        <v>-1.399325812798242</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7291,9 +7153,6 @@
       <c r="AU47" t="n">
         <v>-1.08981898817</v>
       </c>
-      <c r="AV47" t="n">
-        <v>-1.090752705720762</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7437,9 +7296,6 @@
       <c r="AU48" t="n">
         <v>-0.9465181187884313</v>
       </c>
-      <c r="AV48" t="n">
-        <v>-0.9474058038409424</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7583,9 +7439,6 @@
       <c r="AU49" t="n">
         <v>-0.6973958700989794</v>
       </c>
-      <c r="AV49" t="n">
-        <v>-0.6980728396413182</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7729,9 +7582,6 @@
       <c r="AU50" t="n">
         <v>-0.09170228565062999</v>
       </c>
-      <c r="AV50" t="n">
-        <v>-0.09178333682957623</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7875,9 +7725,6 @@
       <c r="AU51" t="n">
         <v>-0.9179412416724588</v>
       </c>
-      <c r="AV51" t="n">
-        <v>-0.918823670168924</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8021,9 +7868,6 @@
       <c r="AU52" t="n">
         <v>-0.9179412416724588</v>
       </c>
-      <c r="AV52" t="n">
-        <v>-0.918823670168924</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8167,9 +8011,6 @@
       <c r="AU53" t="n">
         <v>-1.2295533688357</v>
       </c>
-      <c r="AV53" t="n">
-        <v>-1.230587596054693</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8313,9 +8154,6 @@
       <c r="AU54" t="n">
         <v>-0.2081424336299315</v>
       </c>
-      <c r="AV54" t="n">
-        <v>-0.2084264792803889</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8459,9 +8297,6 @@
       <c r="AU55" t="n">
         <v>-1.115024377277203</v>
       </c>
-      <c r="AV55" t="n">
-        <v>-1.115948073478516</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8605,9 +8440,6 @@
       <c r="AU56" t="n">
         <v>-0.9783531524903162</v>
       </c>
-      <c r="AV56" t="n">
-        <v>-0.9792570872058046</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8751,9 +8583,6 @@
       <c r="AU57" t="n">
         <v>-1.054416183930405</v>
       </c>
-      <c r="AV57" t="n">
-        <v>-1.055488542341951</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8897,9 +8726,6 @@
       <c r="AU58" t="n">
         <v>-1.197304264980775</v>
       </c>
-      <c r="AV58" t="n">
-        <v>-1.198756228155474</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9043,9 +8869,6 @@
       <c r="AU59" t="n">
         <v>-0.8678667064754102</v>
       </c>
-      <c r="AV59" t="n">
-        <v>-0.8689785927521624</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9189,9 +9012,6 @@
       <c r="AU60" t="n">
         <v>-0.4874545473078479</v>
       </c>
-      <c r="AV60" t="n">
-        <v>-0.4882526920561712</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9335,9 +9155,6 @@
       <c r="AU61" t="n">
         <v>0.3883741864580112</v>
       </c>
-      <c r="AV61" t="n">
-        <v>0.3886603025774055</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9481,9 +9298,6 @@
       <c r="AU62" t="n">
         <v>-1.333915914022482</v>
       </c>
-      <c r="AV62" t="n">
-        <v>-1.335191593022343</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9627,9 +9441,6 @@
       <c r="AU63" t="n">
         <v>-0.6149109861117144</v>
       </c>
-      <c r="AV63" t="n">
-        <v>-0.6161236668653324</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9773,9 +9584,6 @@
       <c r="AU64" t="n">
         <v>-0.9481280820826254</v>
       </c>
-      <c r="AV64" t="n">
-        <v>-0.9492894165125114</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9919,9 +9727,6 @@
       <c r="AU65" t="n">
         <v>-0.07541172435080873</v>
       </c>
-      <c r="AV65" t="n">
-        <v>-0.07586137120090566</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10065,9 +9870,6 @@
       <c r="AU66" t="n">
         <v>-0.8718490583195958</v>
       </c>
-      <c r="AV66" t="n">
-        <v>-0.87285123558761</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10210,9 +10012,6 @@
       </c>
       <c r="AU67" t="n">
         <v>-0.8534247785695114</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-0.8545676303886285</v>
       </c>
     </row>
   </sheetData>
